--- a/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_4.xlsx
+++ b/fuction_ensemble_2/redes-ensemble-s/Teste01/content/results/metrics_10_4.xlsx
@@ -518,1376 +518,1376 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_24</t>
+          <t>model_10_4_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9998844853576573</v>
+        <v>0.9999338648703383</v>
       </c>
       <c r="C2" t="n">
-        <v>0.999365085402295</v>
+        <v>0.9991272949326307</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9999419181195969</v>
+        <v>0.9998230119444361</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9940460770565894</v>
+        <v>0.9996874680044771</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9987437895123408</v>
+        <v>0.9998404668285511</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0001078278481201697</v>
+        <v>6.173424054253237e-05</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0005926649074278032</v>
+        <v>0.0008146318730640973</v>
       </c>
       <c r="I2" t="n">
-        <v>1.990642024895046e-05</v>
+        <v>0.0003216637425506686</v>
       </c>
       <c r="J2" t="n">
-        <v>0.0006537587152832546</v>
+        <v>6.417525755807011e-05</v>
       </c>
       <c r="K2" t="n">
-        <v>0.0003368325677661025</v>
+        <v>0.0001929195000543694</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003811466305382304</v>
+        <v>0.0004885768404931494</v>
       </c>
       <c r="M2" t="n">
-        <v>0.01038401888096173</v>
+        <v>0.0078571140084978</v>
       </c>
       <c r="N2" t="n">
-        <v>1.000554470283245</v>
+        <v>1.000317448622376</v>
       </c>
       <c r="O2" t="n">
-        <v>0.01082608806260668</v>
+        <v>0.008191607618307764</v>
       </c>
       <c r="P2" t="n">
-        <v>76.26994920299049</v>
+        <v>77.38534365782982</v>
       </c>
       <c r="Q2" t="n">
-        <v>111.6173481241683</v>
+        <v>112.7327425790076</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_23</t>
+          <t>model_10_4_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.999885238732683</v>
+        <v>0.9999338629675897</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9993642281902508</v>
+        <v>0.99912728301701</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9999421515255208</v>
+        <v>0.9998230095159879</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9940859175920791</v>
+        <v>0.9996874354256952</v>
       </c>
       <c r="F3" t="n">
-        <v>0.9987520961960915</v>
+        <v>0.999840462237677</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0001071246056029782</v>
+        <v>6.173601667487518e-05</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0005934650772437629</v>
+        <v>0.0008146429957730185</v>
       </c>
       <c r="I3" t="n">
-        <v>1.982642496681861e-05</v>
+        <v>0.0003216681560899577</v>
       </c>
       <c r="J3" t="n">
-        <v>0.0006493841041998588</v>
+        <v>6.418194727863966e-05</v>
       </c>
       <c r="K3" t="n">
-        <v>0.0003346052645833388</v>
+        <v>0.0001929250516842987</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0003816064620981035</v>
+        <v>0.0004885696426308789</v>
       </c>
       <c r="M3" t="n">
-        <v>0.01035010171945079</v>
+        <v>0.007857227034703476</v>
       </c>
       <c r="N3" t="n">
-        <v>1.000550854083122</v>
+        <v>1.00031745775557</v>
       </c>
       <c r="O3" t="n">
-        <v>0.01079072697731202</v>
+        <v>0.008191725456273013</v>
       </c>
       <c r="P3" t="n">
-        <v>76.28303572541117</v>
+        <v>77.38528611741862</v>
       </c>
       <c r="Q3" t="n">
-        <v>111.630434646589</v>
+        <v>112.7326850385964</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_22</t>
+          <t>model_10_4_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9998860949840601</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9993632503107267</v>
+        <v>0.9991272757078897</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9999424301491813</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9941312046823044</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9987615469830922</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0001063253325275214</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0005943778848555699</v>
+        <v>0.0008146498185159644</v>
       </c>
       <c r="I4" t="n">
-        <v>1.973093219630663e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J4" t="n">
-        <v>0.0006444114449622402</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0003320711885792734</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L4" t="n">
-        <v>0.000382074635195963</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M4" t="n">
-        <v>0.01031141758089165</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N4" t="n">
-        <v>1.000546744076511</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O4" t="n">
-        <v>0.01075039597488721</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P4" t="n">
-        <v>76.2980139787326</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q4" t="n">
-        <v>111.6454128999104</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_21</t>
+          <t>model_10_4_22</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9998870483024105</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C5" t="n">
-        <v>0.999362158793866</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9999427543856448</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9941816560983575</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F5" t="n">
-        <v>0.9987720843383024</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G5" t="n">
-        <v>0.000105435451693291</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0005953967679329774</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I5" t="n">
-        <v>1.961980653611557e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0006388717271565826</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0003292457668463491</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003825361594602625</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M5" t="n">
-        <v>0.01026817664891343</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N5" t="n">
-        <v>1.00054216814843</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O5" t="n">
-        <v>0.01070531418691361</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P5" t="n">
-        <v>76.31482324916998</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q5" t="n">
-        <v>111.6622221703478</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_20</t>
+          <t>model_10_4_21</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9998880673341889</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9993609592917584</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D6" t="n">
-        <v>0.9999430754442677</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9942358960488401</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F6" t="n">
-        <v>0.9987833953805352</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0001044842302584471</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H6" t="n">
-        <v>0.0005965164504983779</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I6" t="n">
-        <v>1.950977001822501e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J6" t="n">
-        <v>0.0006329160168322211</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K6" t="n">
-        <v>0.0003262128934252231</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0003831075899249327</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M6" t="n">
-        <v>0.01022175279775671</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N6" t="n">
-        <v>1.000537276795893</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O6" t="n">
-        <v>0.01065691397630253</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P6" t="n">
-        <v>76.33294880912938</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q6" t="n">
-        <v>111.6803477303072</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_19</t>
+          <t>model_10_4_20</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9998892245236614</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9993595886300874</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D7" t="n">
-        <v>0.999943462467342</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E7" t="n">
-        <v>0.994297277556069</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F7" t="n">
-        <v>0.9987962108439308</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G7" t="n">
-        <v>0.00010340404468066</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0005977959030031368</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I7" t="n">
-        <v>1.937712548417319e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0006261761420153192</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0003227766337497462</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0003836635954905765</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M7" t="n">
-        <v>0.01016877793447472</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N7" t="n">
-        <v>1.000531722286425</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O7" t="n">
-        <v>0.01060168386341754</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P7" t="n">
-        <v>76.3537329596415</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q7" t="n">
-        <v>111.7011318808193</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_18</t>
+          <t>model_10_4_19</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9998905090336253</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C8" t="n">
-        <v>0.9993580361055272</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D8" t="n">
-        <v>0.9999438904307142</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9943656734504263</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F8" t="n">
-        <v>0.9988104886969764</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G8" t="n">
-        <v>0.000102205011012765</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0005992451165322059</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I8" t="n">
-        <v>1.923044946958826e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J8" t="n">
-        <v>0.0006186660663138559</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K8" t="n">
-        <v>0.0003189482578917221</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L8" t="n">
-        <v>0.000384225491569057</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M8" t="n">
-        <v>0.01010964940108038</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N8" t="n">
-        <v>1.000525556638598</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O8" t="n">
-        <v>0.01054003810594367</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P8" t="n">
-        <v>76.37705969992123</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q8" t="n">
-        <v>111.724458621099</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_17</t>
+          <t>model_10_4_18</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9998919202876227</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C9" t="n">
-        <v>0.9993562919165719</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D9" t="n">
-        <v>0.9999443607705117</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9944409813592135</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F9" t="n">
-        <v>0.9988262088962749</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G9" t="n">
-        <v>0.000100887667353059</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0006008732403608941</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I9" t="n">
-        <v>1.906924977003256e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J9" t="n">
-        <v>0.0006103970305592117</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0003147331401646221</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0003847958491331515</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M9" t="n">
-        <v>0.01004428530822671</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N9" t="n">
-        <v>1.000518782619411</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O9" t="n">
-        <v>0.01047189132833489</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P9" t="n">
-        <v>76.40300572901299</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q9" t="n">
-        <v>111.7504046501908</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_16</t>
+          <t>model_10_4_17</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9998934465699663</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C10" t="n">
-        <v>0.9993543482310443</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D10" t="n">
-        <v>0.9999448603670827</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9945227021325006</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F10" t="n">
-        <v>0.9988432608540184</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G10" t="n">
-        <v>9.946294978152864e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0006026875854829234</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I10" t="n">
-        <v>1.889802288779535e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0006014238429207656</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K10" t="n">
-        <v>0.0003101609329042805</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0003854519238520819</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M10" t="n">
-        <v>0.009973111339072107</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N10" t="n">
-        <v>1.000511456464162</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O10" t="n">
-        <v>0.01039768733596294</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P10" t="n">
-        <v>76.43145069429831</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q10" t="n">
-        <v>111.7788496154761</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_15</t>
+          <t>model_10_4_16</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9998951650750989</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9993521507107997</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D11" t="n">
-        <v>0.9999454457605873</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9946148272897694</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9988624979852054</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G11" t="n">
-        <v>9.785880067382855e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0006047388741712869</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I11" t="n">
-        <v>1.869739079682617e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J11" t="n">
-        <v>0.0005913082225081817</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K11" t="n">
-        <v>0.000305002806652504</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0003859924400233228</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M11" t="n">
-        <v>0.009892360722993706</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N11" t="n">
-        <v>1.000503207639525</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O11" t="n">
-        <v>0.01031349899898126</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P11" t="n">
-        <v>76.46396985541691</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q11" t="n">
-        <v>111.8113687765947</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_14</t>
+          <t>model_10_4_15</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.9998970317034236</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C12" t="n">
-        <v>0.999349689531337</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D12" t="n">
-        <v>0.999946080858822</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E12" t="n">
-        <v>0.9947152054088632</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F12" t="n">
-        <v>0.998883456710675</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G12" t="n">
-        <v>9.611638506818761e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0006070362771664615</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I12" t="n">
-        <v>1.84797233888202e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J12" t="n">
-        <v>0.0005802864019698605</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0002993830626793403</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0003865095492629346</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M12" t="n">
-        <v>0.009803896422759046</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N12" t="n">
-        <v>1.000494247823567</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O12" t="n">
-        <v>0.01022126859033927</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P12" t="n">
-        <v>76.49990151266455</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q12" t="n">
-        <v>111.8473004338424</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_13</t>
+          <t>model_10_4_14</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.9998990341137783</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9993469383464113</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D13" t="n">
-        <v>0.9999467152362402</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E13" t="n">
-        <v>0.9948234495142706</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F13" t="n">
-        <v>0.9989060255684844</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G13" t="n">
-        <v>9.424722289768374e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H13" t="n">
-        <v>0.000609604387531497</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I13" t="n">
-        <v>1.826230302645716e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0005684008723852862</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0002933315877058717</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0003871294278340222</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M13" t="n">
-        <v>0.009708100890374169</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N13" t="n">
-        <v>1.000484636253864</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O13" t="n">
-        <v>0.01012139484381668</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P13" t="n">
-        <v>76.53917839469366</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q13" t="n">
-        <v>111.8865773158715</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_12</t>
+          <t>model_10_4_13</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.9999011405085348</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9993439368106091</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D14" t="n">
-        <v>0.9999473430409579</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E14" t="n">
-        <v>0.9949379900040644</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F14" t="n">
-        <v>0.9989298794362335</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G14" t="n">
-        <v>9.228099585260247e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H14" t="n">
-        <v>0.000612406189450737</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I14" t="n">
-        <v>1.804713532773601e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0005558239807850415</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0002869355580563887</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L14" t="n">
-        <v>0.0003877965227857649</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M14" t="n">
-        <v>0.009606299800266617</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N14" t="n">
-        <v>1.000474525559033</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O14" t="n">
-        <v>0.01001525987054594</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P14" t="n">
-        <v>76.58134466615253</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q14" t="n">
-        <v>111.9287435873303</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_11</t>
+          <t>model_10_4_12</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.9999036154045274</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9993404109659789</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D15" t="n">
-        <v>0.9999481942276687</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9950722987836672</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F15" t="n">
-        <v>0.9989579237066379</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G15" t="n">
-        <v>8.997078907885184e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0006156974106462256</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I15" t="n">
-        <v>1.775540785164847e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0005410764712792991</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0002794159395654739</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0003879523987218896</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M15" t="n">
-        <v>0.00948529330484049</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N15" t="n">
-        <v>1.000462646058268</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O15" t="n">
-        <v>0.009889101878091546</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P15" t="n">
-        <v>76.63205101221484</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q15" t="n">
-        <v>111.9794499333927</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_10</t>
+          <t>model_10_4_11</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.9999063160033298</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9993364580353278</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D16" t="n">
-        <v>0.9999491491785863</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9952192485594428</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F16" t="n">
-        <v>0.9989886225889592</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G16" t="n">
-        <v>8.744989863947771e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0006193872978955021</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I16" t="n">
-        <v>1.742811723792184e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0005249409422280732</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K16" t="n">
-        <v>0.0002711845297329975</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0003878945730577389</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M16" t="n">
-        <v>0.009351465053106797</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N16" t="n">
-        <v>1.000449683184017</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O16" t="n">
-        <v>0.009749576280618876</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P16" t="n">
-        <v>76.68888903113725</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q16" t="n">
-        <v>112.0362879523151</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_9</t>
+          <t>model_10_4_10</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.9999093784738248</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9993318639918879</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9999503169244703</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9953858405658544</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F17" t="n">
-        <v>0.9990234792966017</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G17" t="n">
-        <v>8.459121685935421e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0006236756357914388</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I17" t="n">
-        <v>1.70278953417161e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J17" t="n">
-        <v>0.0005066486369491222</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K17" t="n">
-        <v>0.0002618382661454191</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0003883524612988498</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M17" t="n">
-        <v>0.009197348360226126</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N17" t="n">
-        <v>1.000434983325641</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O17" t="n">
-        <v>0.00958889852105674</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P17" t="n">
-        <v>76.75536023274222</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q17" t="n">
-        <v>112.10275915392</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_8</t>
+          <t>model_10_4_9</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.9999127096525851</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9993267240182548</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9999516555179366</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9955673026636321</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F18" t="n">
-        <v>0.9990614899057455</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G18" t="n">
-        <v>8.148170770841587e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H18" t="n">
-        <v>0.0006284735755590846</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I18" t="n">
-        <v>1.656911880248515e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0004867235507423837</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0002516463347724344</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0003890084561429195</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M18" t="n">
-        <v>0.009026721869450496</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N18" t="n">
-        <v>1.000418993667592</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O18" t="n">
-        <v>0.009411008107323263</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P18" t="n">
-        <v>76.83026401640916</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q18" t="n">
-        <v>112.177662937587</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_7</t>
+          <t>model_10_4_8</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.9999166928325093</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9993206034192492</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9999535535726578</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9957829852219281</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F19" t="n">
-        <v>0.9991068648481332</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G19" t="n">
-        <v>7.77635840905942e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0006341868860676456</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I19" t="n">
-        <v>1.591859793998924e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0004630409546522498</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0002394797762961196</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0003882760707717271</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M19" t="n">
-        <v>0.008818366293741386</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N19" t="n">
-        <v>1.000399874403956</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O19" t="n">
-        <v>0.009193782403400717</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P19" t="n">
-        <v>76.9236746143485</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q19" t="n">
-        <v>112.2710735355263</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_6</t>
+          <t>model_10_4_7</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.999921072352099</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9993136980354632</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9999558471117391</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9960197393692759</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F20" t="n">
-        <v>0.9991568070401867</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G20" t="n">
-        <v>7.36754947922262e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0006406327587205964</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I20" t="n">
-        <v>1.513253260441283e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J20" t="n">
-        <v>0.0004370446344648362</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K20" t="n">
-        <v>0.0002260885835346245</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0003864612166826169</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M20" t="n">
-        <v>0.008583443061628952</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N20" t="n">
-        <v>1.000378852709925</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O20" t="n">
-        <v>0.008948858002939123</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P20" t="n">
-        <v>77.03168062697245</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q20" t="n">
-        <v>112.3790795481503</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_5</t>
+          <t>model_10_4_6</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.9999262910412628</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9993053725219676</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9999591156304787</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9962989630940339</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F21" t="n">
-        <v>0.99921606816511</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G21" t="n">
-        <v>6.880407753180979e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0006484042601208734</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I21" t="n">
-        <v>1.401231219886062e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0004063850264535561</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0002101986693262084</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0003821581794984132</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M21" t="n">
-        <v>0.008294822332745276</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N21" t="n">
-        <v>1.000353803001938</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O21" t="n">
-        <v>0.008647950092099597</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P21" t="n">
-        <v>77.16849509666088</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q21" t="n">
-        <v>112.5158940178387</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_4</t>
+          <t>model_10_4_5</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.9999323767347933</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9992957119494991</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9999635672370679</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9966217003537787</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F22" t="n">
-        <v>0.9992849949800716</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G22" t="n">
-        <v>6.312334975213621e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0006574219804701832</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I22" t="n">
-        <v>1.248661174057414e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J22" t="n">
-        <v>0.0003709475009245429</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K22" t="n">
-        <v>0.0001917170563325586</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0003743368444431037</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M22" t="n">
-        <v>0.007945020437490152</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N22" t="n">
-        <v>1.000324591672992</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O22" t="n">
-        <v>0.008283256405973714</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P22" t="n">
-        <v>77.34083962650178</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q22" t="n">
-        <v>112.6882385476796</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_3</t>
+          <t>model_10_4_4</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.9999395428933969</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9992840174714828</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9999696352828985</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E23" t="n">
-        <v>0.9969984523360472</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F23" t="n">
-        <v>0.9993660146025308</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G23" t="n">
-        <v>5.643405525369342e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0006683382623701578</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I23" t="n">
-        <v>1.040690857746222e-05</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J23" t="n">
-        <v>0.0003295789957810883</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0001699929521792753</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0003619147689858714</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M23" t="n">
-        <v>0.007512260329201419</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N23" t="n">
-        <v>1.000290194111695</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O23" t="n">
-        <v>0.007832072803938208</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P23" t="n">
-        <v>77.56487553025856</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q23" t="n">
-        <v>112.9122744514364</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_2</t>
+          <t>model_10_4_3</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.9999485633497095</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9992682058947031</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9999779448122403</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E24" t="n">
-        <v>0.9974695748435957</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F24" t="n">
-        <v>0.9994677895165625</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G24" t="n">
-        <v>4.80138552382101e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0006830976752459511</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I24" t="n">
-        <v>7.558981099897854e-06</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J24" t="n">
-        <v>0.0002778483220381893</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0001427036515690436</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0003418784949030652</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M24" t="n">
-        <v>0.006929203073818092</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N24" t="n">
-        <v>1.000246895921394</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O24" t="n">
-        <v>0.007224193594098305</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P24" t="n">
-        <v>77.88804187582393</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q24" t="n">
-        <v>113.2354407970017</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_1</t>
+          <t>model_10_4_23</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.9999590894369584</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C25" t="n">
-        <v>0.9992468090678049</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9999876176795629</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E25" t="n">
-        <v>0.9980214665343696</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F25" t="n">
-        <v>0.9995869735660727</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G25" t="n">
-        <v>3.818821483310171e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0007030706739432485</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I25" t="n">
-        <v>4.243796388266186e-06</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J25" t="n">
-        <v>0.0002172489481186481</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0001107463722534571</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0003127174151119261</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M25" t="n">
-        <v>0.006179661384987183</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N25" t="n">
-        <v>1.0001963707026</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O25" t="n">
-        <v>0.006442742363808668</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P25" t="n">
-        <v>78.3459672043478</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q25" t="n">
-        <v>113.6933661255256</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>model_10_4_0</t>
+          <t>model_10_4_24</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.9999702423467943</v>
+        <v>0.9999338618126242</v>
       </c>
       <c r="C26" t="n">
-        <v>0.9992172013509283</v>
+        <v>0.9991272753483447</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9999960872024498</v>
+        <v>0.9998230084169069</v>
       </c>
       <c r="E26" t="n">
-        <v>0.9986188249022658</v>
+        <v>0.999687412335218</v>
       </c>
       <c r="F26" t="n">
-        <v>0.9997146980435107</v>
+        <v>0.9998404594513389</v>
       </c>
       <c r="G26" t="n">
-        <v>2.777746305750067e-05</v>
+        <v>6.173709478443979e-05</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0007307081780190379</v>
+        <v>0.000814650154135481</v>
       </c>
       <c r="I26" t="n">
-        <v>1.34103427510242e-06</v>
+        <v>0.0003216701535949225</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0001516571957779989</v>
+        <v>6.418668867262821e-05</v>
       </c>
       <c r="K26" t="n">
-        <v>7.649911502655066e-05</v>
+        <v>0.0001929284211337753</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0002782678532804586</v>
+        <v>0.0004885546030702877</v>
       </c>
       <c r="M26" t="n">
-        <v>0.005270432909875685</v>
+        <v>0.007857295640641236</v>
       </c>
       <c r="N26" t="n">
-        <v>1.000142836735387</v>
+        <v>1.000317463299404</v>
       </c>
       <c r="O26" t="n">
-        <v>0.005494806150149259</v>
+        <v>0.008191796982907578</v>
       </c>
       <c r="P26" t="n">
-        <v>78.98257109486481</v>
+        <v>77.38525119128605</v>
       </c>
       <c r="Q26" t="n">
-        <v>114.3299700160426</v>
+        <v>112.7326501124639</v>
       </c>
     </row>
   </sheetData>
